--- a/diff amp.xlsx
+++ b/diff amp.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>v01</t>
   </si>
   <si>
     <t>phi1</t>
@@ -51,6 +48,12 @@
   </si>
   <si>
     <t>for only one input connected</t>
+  </si>
+  <si>
+    <t>v01(p-p)</t>
+  </si>
+  <si>
+    <t>v01(peak)</t>
   </si>
 </sst>
 </file>
@@ -190,9 +193,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.0469816272965886E-2"/>
-          <c:y val="0.25083333333333335"/>
+          <c:y val="8.045744460603399E-2"/>
           <c:w val="0.85853018372703416"/>
-          <c:h val="0.64176727909011377"/>
+          <c:h val="0.81214328990720519"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -290,43 +293,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>27.60422483423212</c:v>
+                  <c:v>21.583624920952495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.60422483423212</c:v>
+                  <c:v>21.583624920952495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.60422483423212</c:v>
+                  <c:v>21.583624920952495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.60422483423212</c:v>
+                  <c:v>21.583624920952495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.60422483423212</c:v>
+                  <c:v>21.583624920952495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.60422483423212</c:v>
+                  <c:v>21.583624920952495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.60422483423212</c:v>
+                  <c:v>21.583624920952495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.848453616444125</c:v>
+                  <c:v>20.827853703164504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.105450102066122</c:v>
+                  <c:v>19.084850188786497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>13.979400086720377</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.979400086720377</c:v>
+                  <c:v>7.9588001734407516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.102999566398118</c:v>
+                  <c:v>4.082399653118495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9588001734407516</c:v>
+                  <c:v>1.9382002601611283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,43 +933,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-16.193366036594171</c:v>
+                  <c:v>-57.776990957546666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-16.193366036594171</c:v>
+                  <c:v>-57.776990957546666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16.193366036594171</c:v>
+                  <c:v>-57.776990957546666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.193366036594171</c:v>
+                  <c:v>-57.776990957546666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16.026858260911546</c:v>
+                  <c:v>-57.610483181864041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16.026858260911546</c:v>
+                  <c:v>-57.610483181864041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.89454989793388</c:v>
+                  <c:v>-56.478174818886373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.8508995357066294</c:v>
+                  <c:v>-49.434524456659126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.8533500713746323</c:v>
+                  <c:v>-44.43697499232713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9225607135647613</c:v>
+                  <c:v>-38.661064207387732</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.629578340845104</c:v>
+                  <c:v>-30.954046580107395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.647875196459371</c:v>
+                  <c:v>-26.935749724493125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.901960800285135</c:v>
+                  <c:v>-24.68166412066736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5003,8 +5006,8 @@
   </sheetPr>
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5014,16 +5017,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5037,8 +5040,8 @@
         <v>180</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D14" si="0">20*LOG10(B2/0.05)</f>
-        <v>27.60422483423212</v>
+        <f>20*LOG10(B2/0.1)</f>
+        <v>21.583624920952495</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -5055,8 +5058,8 @@
         <v>180</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>27.60422483423212</v>
+        <f t="shared" ref="D3:D14" si="0">20*LOG10(B3/0.1)</f>
+        <v>21.583624920952495</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -5074,7 +5077,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -5092,7 +5095,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -5110,7 +5113,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5128,7 +5131,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -5146,7 +5149,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5164,7 +5167,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>26.848453616444125</v>
+        <v>20.827853703164504</v>
       </c>
       <c r="E9" s="1">
         <v>18</v>
@@ -5182,7 +5185,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>25.105450102066122</v>
+        <v>19.084850188786497</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -5200,7 +5203,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>13.979400086720377</v>
       </c>
       <c r="E11" s="1">
         <v>58</v>
@@ -5218,7 +5221,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>13.979400086720377</v>
+        <v>7.9588001734407516</v>
       </c>
       <c r="E12" s="1">
         <v>77</v>
@@ -5236,7 +5239,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>10.102999566398118</v>
+        <v>4.082399653118495</v>
       </c>
       <c r="E13" s="1">
         <v>80</v>
@@ -5254,7 +5257,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>7.9588001734407516</v>
+        <v>1.9382002601611283</v>
       </c>
       <c r="E14" s="1">
         <v>83</v>
@@ -5265,22 +5268,22 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5294,19 +5297,19 @@
         <v>180</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D29" si="1">20*LOG10(B17/0.05)</f>
-        <v>-16.193366036594171</v>
+        <f>20*LOG10(B17/6)</f>
+        <v>-57.776990957546666</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E29" si="2">B17</f>
+        <f t="shared" ref="E17:E29" si="1">B17</f>
         <v>7.7499999999999999E-3</v>
       </c>
       <c r="F17" s="1">
         <v>180</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G29" si="3">20*LOG10(E17/0.05)</f>
-        <v>-16.193366036594171</v>
+        <f>20*LOG10(E17/6)</f>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5320,19 +5323,19 @@
         <v>180</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" ref="D18:D29" si="2">20*LOG10(B18/6)</f>
+        <v>-57.776990957546666</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>-16.193366036594171</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
         <v>7.7499999999999999E-3</v>
       </c>
       <c r="F18" s="1">
         <v>180</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>-16.193366036594171</v>
+        <f t="shared" ref="G18:G29" si="3">20*LOG10(E18/6)</f>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5346,11 +5349,11 @@
         <v>180</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>-57.776990957546666</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>-16.193366036594171</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
         <v>7.7499999999999999E-3</v>
       </c>
       <c r="F19" s="1">
@@ -5358,7 +5361,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>-16.193366036594171</v>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5372,11 +5375,11 @@
         <v>180</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>-57.776990957546666</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>-16.193366036594171</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="2"/>
         <v>7.7499999999999999E-3</v>
       </c>
       <c r="F20" s="1">
@@ -5384,7 +5387,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>-16.193366036594171</v>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5398,11 +5401,11 @@
         <v>180</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>-57.610483181864041</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>-16.026858260911546</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="2"/>
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="F21" s="1">
@@ -5410,7 +5413,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>-16.026858260911546</v>
+        <v>-57.610483181864041</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5424,11 +5427,11 @@
         <v>180</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>-57.610483181864041</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>-16.026858260911546</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="2"/>
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="F22" s="1">
@@ -5436,7 +5439,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>-16.026858260911546</v>
+        <v>-57.610483181864041</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5450,11 +5453,11 @@
         <v>205</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>-56.478174818886373</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>-14.89454989793388</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="2"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F23" s="1">
@@ -5462,7 +5465,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>-14.89454989793388</v>
+        <v>-56.478174818886373</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5476,11 +5479,11 @@
         <v>227</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>-49.434524456659126</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>-7.8508995357066294</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="2"/>
         <v>2.0250000000000001E-2</v>
       </c>
       <c r="F24" s="1">
@@ -5488,7 +5491,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>-7.8508995357066294</v>
+        <v>-49.434524456659126</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5502,11 +5505,11 @@
         <v>230</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>-44.43697499232713</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>-2.8533500713746323</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="2"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="F25" s="1">
@@ -5514,7 +5517,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>-2.8533500713746323</v>
+        <v>-44.43697499232713</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5528,11 +5531,11 @@
         <v>248</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>-38.661064207387732</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>2.9225607135647613</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F26" s="1">
@@ -5540,7 +5543,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>2.9225607135647613</v>
+        <v>-38.661064207387732</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5554,11 +5557,11 @@
         <v>248</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>-30.954046580107395</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>10.629578340845104</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
       <c r="F27" s="1">
@@ -5566,7 +5569,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>10.629578340845104</v>
+        <v>-30.954046580107395</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5580,11 +5583,11 @@
         <v>230</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>-26.935749724493125</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>14.647875196459371</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
       <c r="F28" s="1">
@@ -5592,7 +5595,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>14.647875196459371</v>
+        <v>-26.935749724493125</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5606,11 +5609,11 @@
         <v>237</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>-24.68166412066736</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>16.901960800285135</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
       <c r="F29" s="1">
@@ -5618,12 +5621,12 @@
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>16.901960800285135</v>
+        <v>-24.68166412066736</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5631,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5639,8 +5642,8 @@
         <v>50</v>
       </c>
       <c r="B32" s="1">
-        <f>20*LOG10(B2/0.05)</f>
-        <v>27.60422483423212</v>
+        <f>20*LOG10(B2/0.1)</f>
+        <v>21.583624920952495</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5648,8 +5651,8 @@
         <v>100</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" ref="B33:B44" si="4">20*LOG10(B3/0.05)</f>
-        <v>27.60422483423212</v>
+        <f t="shared" ref="B33:B44" si="4">20*LOG10(B3/0.1)</f>
+        <v>21.583624920952495</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5658,7 +5661,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="4"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5667,7 +5670,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" si="4"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5676,7 +5679,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" si="4"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5685,7 +5688,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="4"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5694,7 +5697,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="4"/>
-        <v>27.60422483423212</v>
+        <v>21.583624920952495</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5703,7 +5706,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="4"/>
-        <v>26.848453616444125</v>
+        <v>20.827853703164504</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5712,7 +5715,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="4"/>
-        <v>25.105450102066122</v>
+        <v>19.084850188786497</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5721,7 +5724,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>13.979400086720377</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5730,7 +5733,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" si="4"/>
-        <v>13.979400086720377</v>
+        <v>7.9588001734407516</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5739,7 +5742,7 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" si="4"/>
-        <v>10.102999566398118</v>
+        <v>4.082399653118495</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5748,7 +5751,7 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" si="4"/>
-        <v>7.9588001734407516</v>
+        <v>1.9382002601611283</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5756,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5868,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5977,7 +5980,7 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5985,124 +5988,124 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>50</v>
       </c>
-      <c r="B83" s="1">
-        <f>20*LOG10(B17/0.05)</f>
-        <v>-16.193366036594171</v>
+      <c r="B83">
+        <f>20*LOG10(B17/6)</f>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>100</v>
       </c>
-      <c r="B84" s="1">
-        <f>20*LOG10(B18/0.05)</f>
-        <v>-16.193366036594171</v>
+      <c r="B84">
+        <f t="shared" ref="B84:B95" si="5">20*LOG10(B18/6)</f>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>200</v>
       </c>
-      <c r="B85" s="1">
-        <f>20*LOG10(B19/0.05)</f>
-        <v>-16.193366036594171</v>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>500</v>
       </c>
-      <c r="B86" s="1">
-        <f>20*LOG10(B20/0.05)</f>
-        <v>-16.193366036594171</v>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>-57.776990957546666</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>800</v>
       </c>
-      <c r="B87" s="1">
-        <f>20*LOG10(B21/0.05)</f>
-        <v>-16.026858260911546</v>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>-57.610483181864041</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1000</v>
       </c>
-      <c r="B88" s="1">
-        <f>20*LOG10(B22/0.05)</f>
-        <v>-16.026858260911546</v>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>-57.610483181864041</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>10000</v>
       </c>
-      <c r="B89" s="1">
-        <f>20*LOG10(B23/0.05)</f>
-        <v>-14.89454989793388</v>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>-56.478174818886373</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>50000</v>
       </c>
-      <c r="B90" s="1">
-        <f>20*LOG10(B24/0.05)</f>
-        <v>-7.8508995357066294</v>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>-49.434524456659126</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>100000</v>
       </c>
-      <c r="B91" s="1">
-        <f>20*LOG10(B25/0.05)</f>
-        <v>-2.8533500713746323</v>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>-44.43697499232713</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>200000</v>
       </c>
-      <c r="B92" s="1">
-        <f>20*LOG10(B26/0.05)</f>
-        <v>2.9225607135647613</v>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>-38.661064207387732</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>500000</v>
       </c>
-      <c r="B93" s="1">
-        <f>20*LOG10(B27/0.05)</f>
-        <v>10.629578340845104</v>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>-30.954046580107395</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>800000</v>
       </c>
-      <c r="B94" s="1">
-        <f>20*LOG10(B28/0.05)</f>
-        <v>14.647875196459371</v>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>-26.935749724493125</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1000000</v>
       </c>
-      <c r="B95" s="1">
-        <f>20*LOG10(B29/0.05)</f>
-        <v>16.901960800285135</v>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>-24.68166412066736</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6110,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/diff amp.xlsx
+++ b/diff amp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>f</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>v01(peak)</t>
+  </si>
+  <si>
+    <t>Sunil data</t>
   </si>
 </sst>
 </file>
@@ -933,43 +936,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-57.776990957546666</c:v>
+                  <c:v>-51.756391044267041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-57.776990957546666</c:v>
+                  <c:v>-51.756391044267041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-57.776990957546666</c:v>
+                  <c:v>-51.756391044267041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-57.776990957546666</c:v>
+                  <c:v>-51.756391044267041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-57.610483181864041</c:v>
+                  <c:v>-51.589883268584416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-57.610483181864041</c:v>
+                  <c:v>-51.589883268584416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-56.478174818886373</c:v>
+                  <c:v>-50.457574905606748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-49.434524456659126</c:v>
+                  <c:v>-43.413924543379501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-44.43697499232713</c:v>
+                  <c:v>-38.416375079047505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-38.661064207387732</c:v>
+                  <c:v>-32.640464294108114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30.954046580107395</c:v>
+                  <c:v>-24.93344666682777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26.935749724493125</c:v>
+                  <c:v>-20.915149811213499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-24.68166412066736</c:v>
+                  <c:v>-18.661064207387735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,6 +1758,338 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1579147968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$116:$A$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$116:$B$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>244.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>259.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-873F-4A0F-94C3-29599E3BBDEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1848117296"/>
+        <c:axId val="1848125200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1848117296"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848125200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1848125200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848117296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2003,6 +2338,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4068,6 +4443,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4735,6 +5626,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>836083</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5004,10 +5925,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5308,8 +6229,8 @@
         <v>180</v>
       </c>
       <c r="G17">
-        <f>20*LOG10(E17/6)</f>
-        <v>-57.776990957546666</v>
+        <f>20*LOG10(E17/3)</f>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5334,8 +6255,8 @@
         <v>180</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G29" si="3">20*LOG10(E18/6)</f>
-        <v>-57.776990957546666</v>
+        <f t="shared" ref="G18:G29" si="3">20*LOG10(E18/3)</f>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5361,7 +6282,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>-57.776990957546666</v>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5387,7 +6308,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>-57.776990957546666</v>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5413,7 +6334,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>-57.610483181864041</v>
+        <v>-51.589883268584416</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5439,7 +6360,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>-57.610483181864041</v>
+        <v>-51.589883268584416</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5465,7 +6386,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>-56.478174818886373</v>
+        <v>-50.457574905606748</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5491,7 +6412,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>-49.434524456659126</v>
+        <v>-43.413924543379501</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5517,7 +6438,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>-44.43697499232713</v>
+        <v>-38.416375079047505</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5543,7 +6464,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>-38.661064207387732</v>
+        <v>-32.640464294108114</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5569,7 +6490,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>-30.954046580107395</v>
+        <v>-24.93344666682777</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5595,7 +6516,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>-26.935749724493125</v>
+        <v>-20.915149811213499</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5621,7 +6542,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>-24.68166412066736</v>
+        <v>-18.661064207387735</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5996,8 +6917,8 @@
         <v>50</v>
       </c>
       <c r="B83">
-        <f>20*LOG10(B17/6)</f>
-        <v>-57.776990957546666</v>
+        <f>20*LOG10(B17/3)</f>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6005,8 +6926,8 @@
         <v>100</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:B95" si="5">20*LOG10(B18/6)</f>
-        <v>-57.776990957546666</v>
+        <f t="shared" ref="B84:B95" si="5">20*LOG10(B18/3)</f>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6015,7 +6936,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="5"/>
-        <v>-57.776990957546666</v>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6024,7 +6945,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="5"/>
-        <v>-57.776990957546666</v>
+        <v>-51.756391044267041</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6033,7 +6954,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="5"/>
-        <v>-57.610483181864041</v>
+        <v>-51.589883268584416</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6042,7 +6963,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="5"/>
-        <v>-57.610483181864041</v>
+        <v>-51.589883268584416</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6051,7 +6972,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="5"/>
-        <v>-56.478174818886373</v>
+        <v>-50.457574905606748</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6060,7 +6981,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="5"/>
-        <v>-49.434524456659126</v>
+        <v>-43.413924543379501</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6069,7 +6990,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="5"/>
-        <v>-44.43697499232713</v>
+        <v>-38.416375079047505</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,7 +6999,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="5"/>
-        <v>-38.661064207387732</v>
+        <v>-32.640464294108114</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6087,7 +7008,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="5"/>
-        <v>-30.954046580107395</v>
+        <v>-24.93344666682777</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6096,7 +7017,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="5"/>
-        <v>-26.935749724493125</v>
+        <v>-20.915149811213499</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6105,7 +7026,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="5"/>
-        <v>-24.68166412066736</v>
+        <v>-18.661064207387735</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6218,6 +7139,115 @@
       </c>
       <c r="B112" s="1">
         <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>50</v>
+      </c>
+      <c r="B116" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>100</v>
+      </c>
+      <c r="B117" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>200</v>
+      </c>
+      <c r="B118" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>500</v>
+      </c>
+      <c r="B119" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>800</v>
+      </c>
+      <c r="B120" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B121" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B122" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B123" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B124" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B125" s="1">
+        <v>244.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B126" s="1">
+        <v>248.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>800000</v>
+      </c>
+      <c r="B127" s="1">
+        <v>244.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B128" s="1">
+        <v>259.2</v>
       </c>
     </row>
   </sheetData>

--- a/diff amp.xlsx
+++ b/diff amp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>f</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Sunil data</t>
+  </si>
+  <si>
+    <t>Differential Amp Characteristics</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Gain(dB)</t>
   </si>
 </sst>
 </file>
@@ -2090,6 +2099,660 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1848117296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$134:$A$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$134:$B$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.53739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.72419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9381999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1581000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3837000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8532999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.8763999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.1521999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45ED-4CFB-A056-05B1D1B078FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1404578847"/>
+        <c:axId val="1404568447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1404578847"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1404568447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1404568447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-4.4000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1404578847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$150:$A$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$150:$B$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.645399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.062000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.112400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC1D-4749-994B-C4EB624A141E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1400117423"/>
+        <c:axId val="1400117839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1400117423"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400117839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1400117839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20.100000000000001"/>
+          <c:min val="13.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400117423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,6 +3041,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4959,6 +5702,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5656,6 +7431,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>51858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>735541</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>37041</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>189440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>756708</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5925,10 +7760,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7250,6 +9085,219 @@
         <v>259.2</v>
       </c>
     </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>100</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>500</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B137" s="1">
+        <v>-0.53739999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B138" s="1">
+        <v>-0.72419999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B139" s="1">
+        <v>-1.9381999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="B140" s="1">
+        <v>-2.1581000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="B141" s="1">
+        <v>-2.3837000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="B142" s="1">
+        <v>-2.8532999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="B143" s="1">
+        <v>-3.0979999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="B144" s="1">
+        <v>-3.8763999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="B145" s="1">
+        <v>-4.1521999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>100</v>
+      </c>
+      <c r="B150" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>500</v>
+      </c>
+      <c r="B151" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B152" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B153" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B154" s="1">
+        <v>19.645399999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B155" s="1">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B156" s="1">
+        <v>18.062000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>104000</v>
+      </c>
+      <c r="B157" s="1">
+        <v>16.902000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>120000</v>
+      </c>
+      <c r="B158" s="1">
+        <v>16.112400000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>140000</v>
+      </c>
+      <c r="B159" s="1">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>160000</v>
+      </c>
+      <c r="B160" s="1">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
